--- a/code/number_datapoints_day.xlsx
+++ b/code/number_datapoints_day.xlsx
@@ -1,256 +1,278 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>pm1</t>
-  </si>
-  <si>
-    <t>pm25</t>
-  </si>
-  <si>
-    <t>pm10</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>004493fa12f4</t>
-  </si>
-  <si>
-    <t>007a92fa12f4</t>
-  </si>
-  <si>
-    <t>007b92fa12f4</t>
-  </si>
-  <si>
-    <t>085fbb1d0470</t>
-  </si>
-  <si>
-    <t>087b92fa12f4</t>
-  </si>
-  <si>
-    <t>0c8790fa12f4</t>
-  </si>
-  <si>
-    <t>0c888ffa12f4</t>
-  </si>
-  <si>
-    <t>18efbc1d0470</t>
-  </si>
-  <si>
-    <t>20ebbc1d0470</t>
-  </si>
-  <si>
-    <t>244492fa12f4</t>
-  </si>
-  <si>
-    <t>282bbc1d0470</t>
-  </si>
-  <si>
-    <t>284f93fa12f4</t>
-  </si>
-  <si>
-    <t>287a92fa12f4</t>
-  </si>
-  <si>
-    <t>287a92fa12f4(1)</t>
-  </si>
-  <si>
-    <t>442bbc1d0470</t>
-  </si>
-  <si>
-    <t>444492fa12f4</t>
-  </si>
-  <si>
-    <t>44ebbc1d0470</t>
-  </si>
-  <si>
-    <t>488790fa12f4</t>
-  </si>
-  <si>
-    <t>4c4492fa12f4</t>
-  </si>
-  <si>
-    <t>4cebbc1d0470</t>
-  </si>
-  <si>
-    <t>503793fa12f4</t>
-  </si>
-  <si>
-    <t>508790fa12f4</t>
-  </si>
-  <si>
-    <t>542bbc1d0470</t>
-  </si>
-  <si>
-    <t>582bbc1d0470</t>
-  </si>
-  <si>
-    <t>583793fa12f4</t>
-  </si>
-  <si>
-    <t>5c4492fa12f4</t>
-  </si>
-  <si>
-    <t>5cebbc1d0470</t>
-  </si>
-  <si>
-    <t>602bbc1d0470</t>
-  </si>
-  <si>
-    <t>642bbc1d0470</t>
-  </si>
-  <si>
-    <t>64ebbc1d0470</t>
-  </si>
-  <si>
-    <t>683c93fa12f4</t>
-  </si>
-  <si>
-    <t>703793fa12f4</t>
-  </si>
-  <si>
-    <t>708890fa12f4</t>
-  </si>
-  <si>
-    <t>742bbc1d0470</t>
-  </si>
-  <si>
-    <t>7c2bbc1d0470</t>
-  </si>
-  <si>
-    <t>7c3c93fa12f4</t>
-  </si>
-  <si>
-    <t>7c888ffa12f4</t>
-  </si>
-  <si>
-    <t>842bbc1d0470</t>
-  </si>
-  <si>
-    <t>843793fa12f4</t>
-  </si>
-  <si>
-    <t>843c93fa12f4</t>
-  </si>
-  <si>
-    <t>84888ffa12f4</t>
-  </si>
-  <si>
-    <t>882f92fa12f4</t>
-  </si>
-  <si>
-    <t>8c2bbc1d0470</t>
-  </si>
-  <si>
-    <t>9061bb1d0470</t>
-  </si>
-  <si>
-    <t>943c93fa12f4</t>
-  </si>
-  <si>
-    <t>9461bb1d0470</t>
-  </si>
-  <si>
-    <t>983c93fa12f4</t>
-  </si>
-  <si>
-    <t>988790fa12f4</t>
-  </si>
-  <si>
-    <t>9c2bbc1d0470</t>
-  </si>
-  <si>
-    <t>a42bbc1d0470</t>
-  </si>
-  <si>
-    <t>a87a92fa12f4</t>
-  </si>
-  <si>
-    <t>ac2892fa12f4</t>
-  </si>
-  <si>
-    <t>ac7a92fa12f4</t>
-  </si>
-  <si>
-    <t>b02bbc1d0470</t>
-  </si>
-  <si>
-    <t>b47a92fa12f4</t>
-  </si>
-  <si>
-    <t>b83793fa12f4</t>
-  </si>
-  <si>
-    <t>bc3793fa12f4</t>
-  </si>
-  <si>
-    <t>c02bbc1d0470</t>
-  </si>
-  <si>
-    <t>c03c93fa12f4</t>
-  </si>
-  <si>
-    <t>c42bbc1d0470</t>
-  </si>
-  <si>
-    <t>d43c93fa12f4</t>
-  </si>
-  <si>
-    <t>d87a92fa12f4</t>
-  </si>
-  <si>
-    <t>e49a8ffa12f4</t>
-  </si>
-  <si>
-    <t>e85ebb1d0470</t>
-  </si>
-  <si>
-    <t>ec7a92fa12f4</t>
-  </si>
-  <si>
-    <t>f05ebb1d0470</t>
+    <t xml:space="preserve">pm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004493fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007a92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">007b92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085fbb1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">087b92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0c8790fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0c888ffa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18efbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20ebbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244492fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284f93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287a92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287a92fa12f4(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444492fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44ebbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488790fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c4492fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4cebbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503793fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">508790fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">582bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583793fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5c4492fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5cebbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">602bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">642bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64ebbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">683c93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">703793fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">708890fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">742bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c2bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c3c93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c888ffa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">842bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">843793fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">843c93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84888ffa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">882f92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8c2bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9061bb1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">943c93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9461bb1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983c93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">988790fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9c2bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a42bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a87a92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac2892fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac7a92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b02bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b47a92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b83793fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc3793fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c02bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c03c93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c42bbc1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d43c93fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d87a92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e49a8ffa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e85ebb1d0470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ec7a92fa12f4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f05ebb1d0470</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,344 +284,92 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="2" style="0" width="18.27"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -607,7 +377,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -615,7 +385,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -623,2116 +393,2116 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="n">
         <v>45048</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>45049</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="n">
         <v>45050</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="n">
         <v>45051</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="n">
         <v>45052</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="n">
         <v>45048</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="n">
         <v>45049</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="2" t="n">
         <v>45050</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="2" t="n">
         <v>45051</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="2" t="n">
         <v>45052</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="2" t="n">
         <v>45048</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="2" t="n">
         <v>45049</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="2" t="n">
         <v>45050</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="2" t="n">
         <v>45051</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="2" t="n">
         <v>45052</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>3856</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>978</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0" t="n">
         <v>3856</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0" t="n">
         <v>978</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0" t="n">
         <v>3856</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="0" t="n">
         <v>978</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>3747</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>4858</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0" t="n">
         <v>3747</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0" t="n">
         <v>4858</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0" t="n">
         <v>3747</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="0" t="n">
         <v>4858</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>1425</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0" t="n">
         <v>1425</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0" t="n">
         <v>1425</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>4034</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>1723</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>691</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0" t="n">
         <v>4034</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0" t="n">
         <v>1723</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0" t="n">
         <v>691</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0" t="n">
         <v>4034</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="0" t="n">
         <v>1723</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="0" t="n">
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>5611</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>6657</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>6160</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>1471</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0" t="n">
         <v>5611</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0" t="n">
         <v>6657</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="0" t="n">
         <v>6160</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0" t="n">
         <v>1471</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="0" t="n">
         <v>5611</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="0" t="n">
         <v>6657</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="0" t="n">
         <v>6160</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="0" t="n">
         <v>1471</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>6251</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>6498</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>1901</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>690</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0" t="n">
         <v>6251</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0" t="n">
         <v>6498</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0" t="n">
         <v>1901</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0" t="n">
         <v>690</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0" t="n">
         <v>6251</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0" t="n">
         <v>6498</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0" t="n">
         <v>1901</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="0" t="n">
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>7517</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>6958</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>6706</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>1449</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0" t="n">
         <v>7517</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0" t="n">
         <v>6958</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0" t="n">
         <v>6706</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0" t="n">
         <v>1449</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0" t="n">
         <v>7517</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="0" t="n">
         <v>6958</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="0" t="n">
         <v>6706</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="0" t="n">
         <v>1449</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>3348</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>976</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0" t="n">
         <v>3348</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0" t="n">
         <v>976</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0" t="n">
         <v>3348</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0" t="n">
         <v>976</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>3047</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>971</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0" t="n">
         <v>3047</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0" t="n">
         <v>971</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0" t="n">
         <v>3047</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0" t="n">
         <v>971</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>3894</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>3775</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>1800</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0" t="n">
         <v>3894</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0" t="n">
         <v>3775</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0" t="n">
         <v>1800</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0" t="n">
         <v>3894</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0" t="n">
         <v>3775</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="0" t="n">
         <v>1800</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="0" t="n">
         <v>668</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="0" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>3500</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>1157</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0" t="n">
         <v>3500</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0" t="n">
         <v>1157</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0" t="n">
         <v>3500</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="0" t="n">
         <v>1157</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>2463</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0" t="n">
         <v>1212</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0" t="n">
         <v>2463</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0" t="n">
         <v>1212</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="0" t="n">
         <v>2463</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="0" t="n">
         <v>1212</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0" t="n">
         <v>2463</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0" t="n">
         <v>1222</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="0" t="n">
         <v>2463</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0" t="n">
         <v>1222</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="0" t="n">
         <v>2463</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="0" t="n">
         <v>1222</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>1181</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0" t="n">
         <v>1181</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0" t="n">
         <v>1181</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>597</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0" t="n">
         <v>597</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="0" t="n">
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>4444</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>6158</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0" t="n">
         <v>733</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0" t="n">
         <v>4444</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0" t="n">
         <v>6158</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0" t="n">
         <v>733</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="0" t="n">
         <v>4444</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="0" t="n">
         <v>6158</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="0" t="n">
         <v>733</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>1834</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>672</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>3033</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0" t="n">
         <v>1544</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0" t="n">
         <v>1834</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0" t="n">
         <v>672</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0" t="n">
         <v>3033</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0" t="n">
         <v>1544</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0" t="n">
         <v>1834</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="0" t="n">
         <v>672</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="0" t="n">
         <v>3033</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="0" t="n">
         <v>1544</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>1331</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>797</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>5024</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0" t="n">
         <v>6924</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0" t="n">
         <v>1158</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0" t="n">
         <v>1331</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0" t="n">
         <v>797</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0" t="n">
         <v>5024</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0" t="n">
         <v>6924</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0" t="n">
         <v>1158</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0" t="n">
         <v>1331</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="0" t="n">
         <v>797</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="0" t="n">
         <v>5024</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="0" t="n">
         <v>6924</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="0" t="n">
         <v>1158</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>4780</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>1165</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0" t="n">
         <v>860</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0" t="n">
         <v>4780</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="0" t="n">
         <v>1165</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0" t="n">
         <v>860</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="0" t="n">
         <v>4780</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="0" t="n">
         <v>1165</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="0" t="n">
         <v>860</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="0" t="n">
         <v>689</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>6581</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>6110</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0" t="n">
         <v>5956</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0" t="n">
         <v>1451</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="0" t="n">
         <v>6581</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="0" t="n">
         <v>6110</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="0" t="n">
         <v>5956</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0" t="n">
         <v>1451</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="0" t="n">
         <v>6581</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="0" t="n">
         <v>6110</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="0" t="n">
         <v>5956</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="0" t="n">
         <v>1451</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="0" t="n">
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0" t="n">
         <v>1263</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>2790</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="0" t="n">
         <v>1263</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0" t="n">
         <v>2790</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="0" t="n">
         <v>1263</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="0" t="n">
         <v>2790</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>3221</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>978</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0" t="n">
         <v>3221</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0" t="n">
         <v>978</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0" t="n">
         <v>3221</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0" t="n">
         <v>978</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>468</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0" t="n">
         <v>468</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="0" t="n">
         <v>468</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>5179</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>7443</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0" t="n">
         <v>2632</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0" t="n">
         <v>729</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0" t="n">
         <v>5179</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0" t="n">
         <v>7443</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="0" t="n">
         <v>2632</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="0" t="n">
         <v>729</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="0" t="n">
         <v>5179</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="0" t="n">
         <v>7443</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="0" t="n">
         <v>2632</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="0" t="n">
         <v>729</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>4404</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>7862</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>5827</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0" t="n">
         <v>6063</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0" t="n">
         <v>1486</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0" t="n">
         <v>4404</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0" t="n">
         <v>7862</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0" t="n">
         <v>5827</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="0" t="n">
         <v>6063</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="0" t="n">
         <v>1486</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0" t="n">
         <v>4404</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="0" t="n">
         <v>7862</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="0" t="n">
         <v>5827</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="0" t="n">
         <v>6063</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="0" t="n">
         <v>1486</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>2387</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0" t="n">
         <v>2387</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="0" t="n">
         <v>2387</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>3721</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>4778</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>610</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0" t="n">
         <v>655</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0" t="n">
         <v>3721</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0" t="n">
         <v>4778</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="0" t="n">
         <v>610</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="0" t="n">
         <v>655</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="0" t="n">
         <v>3721</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="0" t="n">
         <v>4778</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="0" t="n">
         <v>610</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="0" t="n">
         <v>655</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>9013</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>4766</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0" t="n">
         <v>783</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0" t="n">
         <v>9013</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="0" t="n">
         <v>4766</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="0" t="n">
         <v>783</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="0" t="n">
         <v>9013</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="0" t="n">
         <v>4766</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="0" t="n">
         <v>783</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>1572</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="0" t="n">
         <v>1572</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="0" t="n">
         <v>1572</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>1874</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>988</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="0" t="n">
         <v>1874</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0" t="n">
         <v>988</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="0" t="n">
         <v>1874</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="0" t="n">
         <v>988</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="0" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>3158</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>6601</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>4587</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0" t="n">
         <v>2264</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="0" t="n">
         <v>3158</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0" t="n">
         <v>6601</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="0" t="n">
         <v>4587</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="0" t="n">
         <v>2264</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="0" t="n">
         <v>3158</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="0" t="n">
         <v>6601</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="0" t="n">
         <v>4587</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="0" t="n">
         <v>2264</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>3101</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>968</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="0" t="n">
         <v>3101</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0" t="n">
         <v>968</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="0" t="n">
         <v>3101</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="0" t="n">
         <v>968</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>888</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="0" t="n">
         <v>888</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="0" t="n">
         <v>888</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>7309</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>8575</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>2108</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0" t="n">
         <v>698</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0" t="n">
         <v>7309</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="0" t="n">
         <v>8575</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="0" t="n">
         <v>2108</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="0" t="n">
         <v>698</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="0" t="n">
         <v>7309</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="0" t="n">
         <v>8575</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="0" t="n">
         <v>2108</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="0" t="n">
         <v>698</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>3070</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>2867</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>7706</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>5854</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0" t="n">
         <v>1111</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="0" t="n">
         <v>3070</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0" t="n">
         <v>2867</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="0" t="n">
         <v>7706</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="0" t="n">
         <v>5854</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="0" t="n">
         <v>1111</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="0" t="n">
         <v>3070</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="0" t="n">
         <v>2867</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="0" t="n">
         <v>7706</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="0" t="n">
         <v>5854</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="0" t="n">
         <v>1111</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>3479</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="0" t="n">
         <v>3479</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="0" t="n">
         <v>3479</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0" t="n">
         <v>733</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="0" t="n">
         <v>733</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="0" t="n">
         <v>733</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0" t="n">
         <v>1787</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="0" t="n">
         <v>1787</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="0" t="n">
         <v>1787</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>1547</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0" t="n">
         <v>2765</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="0" t="n">
         <v>1547</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="0" t="n">
         <v>2765</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="0" t="n">
         <v>1547</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="0" t="n">
         <v>2765</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>6179</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>8751</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>7500</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>5607</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0" t="n">
         <v>1357</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="0" t="n">
         <v>6179</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0" t="n">
         <v>8751</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="0" t="n">
         <v>7500</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="0" t="n">
         <v>5607</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="0" t="n">
         <v>1357</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="0" t="n">
         <v>6179</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="0" t="n">
         <v>8751</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="0" t="n">
         <v>7500</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="0" t="n">
         <v>5607</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="0" t="n">
         <v>1357</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>1214</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0" t="n">
         <v>2800</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="0" t="n">
         <v>1214</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="0" t="n">
         <v>2800</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="0" t="n">
         <v>1214</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="0" t="n">
         <v>2800</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>2732</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0" t="n">
         <v>2732</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="0" t="n">
         <v>929</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="0" t="n">
         <v>2732</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0" t="n">
         <v>489</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="0" t="n">
         <v>489</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="0" t="n">
         <v>489</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>3896</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>6478</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>6320</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0" t="n">
         <v>1508</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0" t="n">
         <v>3896</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="0" t="n">
         <v>6478</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="0" t="n">
         <v>6320</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="0" t="n">
         <v>1508</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="0" t="n">
         <v>3896</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="0" t="n">
         <v>6478</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="0" t="n">
         <v>6320</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="0" t="n">
         <v>1508</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>6164</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>4287</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0" t="n">
         <v>681</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="0" t="n">
         <v>6164</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0" t="n">
         <v>4287</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="0" t="n">
         <v>681</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="0" t="n">
         <v>6164</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="0" t="n">
         <v>4287</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="0" t="n">
         <v>681</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>2206</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>980</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="0" t="n">
         <v>2206</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0" t="n">
         <v>980</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="0" t="n">
         <v>2206</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="0" t="n">
         <v>980</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>4623</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>3966</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0" t="n">
         <v>666</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="0" t="n">
         <v>4623</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="0" t="n">
         <v>3966</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="0" t="n">
         <v>666</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="0" t="n">
         <v>4623</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="0" t="n">
         <v>3966</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="0" t="n">
         <v>666</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0" t="n">
         <v>1439</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="0" t="n">
         <v>1439</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="0" t="n">
         <v>1439</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>4037</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>1842</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0" t="n">
         <v>386</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="0" t="n">
         <v>4037</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="0" t="n">
         <v>1842</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="0" t="n">
         <v>386</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="0" t="n">
         <v>4037</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="0" t="n">
         <v>1842</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="0" t="n">
         <v>386</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>1142</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0" t="n">
         <v>2399</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0" t="n">
         <v>1219</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="0" t="n">
         <v>1142</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="0" t="n">
         <v>2399</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="0" t="n">
         <v>1219</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="0" t="n">
         <v>1142</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="0" t="n">
         <v>2399</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="0" t="n">
         <v>1219</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>2924</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>974</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="0" t="n">
         <v>2924</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="0" t="n">
         <v>974</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="0" t="n">
         <v>2924</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="0" t="n">
         <v>974</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="0" t="n">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>2608</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="0" t="n">
         <v>2608</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="0" t="n">
         <v>2608</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>1346</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>6493</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>7691</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0" t="n">
         <v>976</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="0" t="n">
         <v>1346</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="0" t="n">
         <v>6493</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="0" t="n">
         <v>7691</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="0" t="n">
         <v>976</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="0" t="n">
         <v>1346</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="0" t="n">
         <v>6493</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="0" t="n">
         <v>7691</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="0" t="n">
         <v>976</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>4334</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="0" t="n">
         <v>4334</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="0" t="n">
         <v>4334</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="0" t="n">
         <v>700</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>4785</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>6418</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="0" t="n">
         <v>4785</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="0" t="n">
         <v>6418</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="0" t="n">
         <v>4785</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="0" t="n">
         <v>6418</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="0" t="n">
         <v>689</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>3680</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>7338</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="0" t="n">
         <v>3680</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="0" t="n">
         <v>7338</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="0" t="n">
         <v>3680</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="0" t="n">
         <v>7338</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="0" t="n">
         <v>475</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>3101</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>8044</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>2044</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="0" t="n">
         <v>3101</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="0" t="n">
         <v>8044</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="0" t="n">
         <v>2044</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="0" t="n">
         <v>3101</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="0" t="n">
         <v>8044</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="0" t="n">
         <v>2044</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="0" t="n">
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>4548</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>4339</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0" t="n">
         <v>6964</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0" t="n">
         <v>1432</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="0" t="n">
         <v>4548</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="0" t="n">
         <v>4339</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="0" t="n">
         <v>6964</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="0" t="n">
         <v>1432</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="0" t="n">
         <v>4548</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="0" t="n">
         <v>4339</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="0" t="n">
         <v>6964</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="0" t="n">
         <v>1432</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>1094</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>970</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="0" t="n">
         <v>1094</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="0" t="n">
         <v>970</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="0" t="n">
         <v>1094</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="0" t="n">
         <v>970</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>1142</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>3791</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0" t="n">
         <v>4446</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="0" t="n">
         <v>1142</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="0" t="n">
         <v>3791</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="0" t="n">
         <v>4446</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="0" t="n">
         <v>1142</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="0" t="n">
         <v>3791</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="0" t="n">
         <v>4446</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>6473</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>6209</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0" t="n">
         <v>6401</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0" t="n">
         <v>1479</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="0" t="n">
         <v>6473</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="0" t="n">
         <v>6209</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="0" t="n">
         <v>6401</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="0" t="n">
         <v>1479</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="0" t="n">
         <v>6473</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="0" t="n">
         <v>6209</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="0" t="n">
         <v>6401</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="0" t="n">
         <v>1479</v>
       </c>
     </row>
@@ -2742,6 +2512,12 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>